--- a/Загрузка билетов в РС Билеты для тестирования/Загрузка билетов для автотестов.xlsx
+++ b/Загрузка билетов в РС Билеты для тестирования/Загрузка билетов для автотестов.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jenkins\workspace\RunTest_ARM_TK_Centr\Загрузка билетов в РС Билеты для тестирования\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jenkins\workspace\ARM_PAYMENT\GIT_ARM_PAYMENT\Загрузка билетов в РС Билеты для тестирования\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>Игра</t>
   </si>
@@ -56,48 +56,6 @@
     <t>Номер</t>
   </si>
   <si>
-    <t>0295</t>
-  </si>
-  <si>
-    <t>8793</t>
-  </si>
-  <si>
-    <t>5190598330100126</t>
-  </si>
-  <si>
-    <t>WTH1C</t>
-  </si>
-  <si>
-    <t>5190598330100134</t>
-  </si>
-  <si>
-    <t>XHQG2</t>
-  </si>
-  <si>
-    <t>5190598330100373</t>
-  </si>
-  <si>
-    <t>XGP2W</t>
-  </si>
-  <si>
-    <t>5190598330100381</t>
-  </si>
-  <si>
-    <t>X1ZTE</t>
-  </si>
-  <si>
-    <t>5190598330100563</t>
-  </si>
-  <si>
-    <t>X8SK0</t>
-  </si>
-  <si>
-    <t>5190598330100571</t>
-  </si>
-  <si>
-    <t>WWKCD</t>
-  </si>
-  <si>
     <t>безнал</t>
   </si>
   <si>
@@ -114,13 +72,85 @@
   </si>
   <si>
     <t>Моментальные современные</t>
+  </si>
+  <si>
+    <t>4304</t>
+  </si>
+  <si>
+    <t>4592</t>
+  </si>
+  <si>
+    <t>2250</t>
+  </si>
+  <si>
+    <t>3924</t>
+  </si>
+  <si>
+    <t>8817</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>5190598330100159</t>
+  </si>
+  <si>
+    <t>X24KC</t>
+  </si>
+  <si>
+    <t>5190598330100167</t>
+  </si>
+  <si>
+    <t>XG824</t>
+  </si>
+  <si>
+    <t>5190598330100399</t>
+  </si>
+  <si>
+    <t>X8HGY</t>
+  </si>
+  <si>
+    <t>5190598330100407</t>
+  </si>
+  <si>
+    <t>X38C2</t>
+  </si>
+  <si>
+    <t>5190598330100589</t>
+  </si>
+  <si>
+    <t>XGVZH</t>
+  </si>
+  <si>
+    <t>5190598330100605</t>
+  </si>
+  <si>
+    <t>WYDL3</t>
+  </si>
+  <si>
+    <t>145100010039</t>
+  </si>
+  <si>
+    <t>145200010039</t>
+  </si>
+  <si>
+    <t>144900010049</t>
+  </si>
+  <si>
+    <t>145000010099</t>
+  </si>
+  <si>
+    <t>144900010099</t>
+  </si>
+  <si>
+    <t>144400010099</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,13 +163,6 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -184,7 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,16 +216,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -492,7 +506,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +518,7 @@
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -541,162 +555,162 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>5113417873</v>
-      </c>
-      <c r="C2" s="6">
-        <v>79067320032</v>
-      </c>
-      <c r="D2" s="7">
-        <v>7873</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="B2" s="4">
+        <v>5113254304</v>
+      </c>
+      <c r="C2" s="4">
+        <v>79067320032</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>4420</v>
       </c>
-      <c r="H2" s="6">
-        <v>500</v>
+      <c r="H2" s="4">
+        <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>5113234759</v>
-      </c>
-      <c r="C3" s="6">
-        <v>79067320032</v>
-      </c>
-      <c r="D3" s="7">
-        <v>4759</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="B3" s="4">
+        <v>5113212250</v>
+      </c>
+      <c r="C3" s="4">
+        <v>79067320032</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>5150</v>
       </c>
-      <c r="H3" s="6">
-        <v>25200</v>
+      <c r="H3" s="4">
+        <v>16500</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
-        <v>5113469086</v>
-      </c>
-      <c r="C4" s="6">
-        <v>79067320032</v>
-      </c>
-      <c r="D4" s="7">
-        <v>9086</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="B4" s="4">
+        <v>5113218817</v>
+      </c>
+      <c r="C4" s="4">
+        <v>79067320032</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>5101</v>
       </c>
-      <c r="H4" s="6">
-        <v>655200</v>
+      <c r="H4" s="4">
+        <v>600000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
-        <v>5113445605</v>
-      </c>
-      <c r="C5" s="6">
-        <v>79067320032</v>
-      </c>
-      <c r="D5" s="7">
-        <v>5605</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="B5" s="4">
+        <v>5113254592</v>
+      </c>
+      <c r="C5" s="4">
+        <v>79067320032</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>4420</v>
       </c>
-      <c r="H5" s="6">
-        <v>500</v>
+      <c r="H5" s="4">
+        <v>75</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
-        <v>5113290295</v>
-      </c>
-      <c r="C6" s="6">
-        <v>79067320032</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="B6" s="4">
+        <v>5113213924</v>
+      </c>
+      <c r="C6" s="4">
+        <v>79067320032</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>5101</v>
       </c>
-      <c r="H6" s="6">
-        <v>25200</v>
+      <c r="H6" s="4">
+        <v>16500</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
-        <v>5113218793</v>
-      </c>
-      <c r="C7" s="6">
-        <v>79067320032</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="4">
+        <v>5113219000</v>
+      </c>
+      <c r="C7" s="4">
+        <v>79067320032</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="4">
+        <v>5101</v>
+      </c>
+      <c r="H7" s="4">
+        <v>600000</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="6">
-        <v>5101</v>
-      </c>
-      <c r="H7" s="6">
-        <v>600000</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -704,26 +718,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4">
         <v>79067320032</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="6">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="4">
         <v>30519</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>9000</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -731,26 +745,26 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="6">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4">
         <v>79067320032</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="6">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4">
         <v>30519</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <v>500000</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -758,26 +772,26 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="6">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4">
         <v>79067320032</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="6">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4">
         <v>30519</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>1000000</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -785,26 +799,26 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4">
         <v>79067320032</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>30519</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>9000</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -812,26 +826,26 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="6">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4">
         <v>79067320032</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="6">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4">
         <v>30519</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <v>500000</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -839,161 +853,257 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="6">
+        <v>32</v>
+      </c>
+      <c r="C13" s="4">
         <v>79067320032</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="6">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="4">
         <v>30519</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <v>1000000</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" s="6">
-        <v>79067320032</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>26</v>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="4">
+        <v>79067320032</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="4">
+        <v>7103</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1022</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15" s="6">
-        <v>79067320032</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>26</v>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4">
+        <v>79067320032</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4">
+        <v>7103</v>
+      </c>
+      <c r="H15" s="4">
+        <v>24377</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16" s="6">
-        <v>79067320032</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>26</v>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4">
+        <v>79067320032</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="4">
+        <v>7103</v>
+      </c>
+      <c r="H16" s="4">
+        <v>20913</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="C17" s="6">
-        <v>79067320032</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>26</v>
+      <c r="B17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="4">
+        <v>79067320032</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="4">
+        <v>7103</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1361</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="C18" s="6">
-        <v>79067320032</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>26</v>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="4">
+        <v>79067320032</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="4">
+        <v>7103</v>
+      </c>
+      <c r="H18" s="4">
+        <v>20913</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="C19" s="6">
-        <v>79067320032</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>26</v>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4">
+        <v>79067320032</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="4">
+        <v>7103</v>
+      </c>
+      <c r="H19" s="4">
+        <v>27513</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="C20" s="6">
-        <v>79067320032</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="B20" s="4">
+        <v>5116128004</v>
+      </c>
+      <c r="C20" s="4">
+        <v>79067320032</v>
+      </c>
+      <c r="D20" s="4">
+        <v>8004</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>28</v>
+      <c r="G20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="C21" s="6">
-        <v>79067320032</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="B21" s="4">
+        <v>5116134463</v>
+      </c>
+      <c r="C21" s="4">
+        <v>79067320032</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4463</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>28</v>
+      <c r="G21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="4">
+        <v>20000</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="C22" s="6">
-        <v>79067320032</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="B22" s="4">
+        <v>5116134664</v>
+      </c>
+      <c r="C22" s="4">
+        <v>79067320032</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4664</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>28</v>
+      <c r="G22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="4">
+        <v>601000</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Загрузка билетов в РС Билеты для тестирования/Загрузка билетов для автотестов.xlsx
+++ b/Загрузка билетов в РС Билеты для тестирования/Загрузка билетов для автотестов.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>Игра</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>144400010099</t>
+  </si>
+  <si>
+    <t>Частичные выплаты</t>
   </si>
 </sst>
 </file>
@@ -207,19 +210,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,12 +515,12 @@
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -552,559 +549,781 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>5113254304</v>
       </c>
-      <c r="C2" s="4">
-        <v>79067320032</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3">
+        <v>79067320032</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>4420</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>75</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>5113212250</v>
       </c>
-      <c r="C3" s="4">
-        <v>79067320032</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3">
+        <v>79067320032</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>5150</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>16500</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>5113218817</v>
       </c>
-      <c r="C4" s="4">
-        <v>79067320032</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="3">
+        <v>79067320032</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>5101</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>600000</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>5113254592</v>
       </c>
-      <c r="C5" s="4">
-        <v>79067320032</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="3">
+        <v>79067320032</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>4420</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>75</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>5113213924</v>
       </c>
-      <c r="C6" s="4">
-        <v>79067320032</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="3">
+        <v>79067320032</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>5101</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>16500</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>5113219000</v>
       </c>
-      <c r="C7" s="4">
-        <v>79067320032</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="3">
+        <v>79067320032</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>5101</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>600000</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4">
-        <v>79067320032</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="3">
+        <v>79067320032</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>30519</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>9000</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4">
-        <v>79067320032</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="3">
+        <v>79067320032</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>30519</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>500000</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4">
-        <v>79067320032</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="3">
+        <v>79067320032</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>30519</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>1000000</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4">
-        <v>79067320032</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="3">
+        <v>79067320032</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>30519</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>9000</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="4">
-        <v>79067320032</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="3">
+        <v>79067320032</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>30519</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>500000</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="4">
-        <v>79067320032</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="3">
+        <v>79067320032</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>30519</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>1000000</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="4">
-        <v>79067320032</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
+      <c r="C14" s="3">
+        <v>79067320032</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>7103</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>1022</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="4">
-        <v>79067320032</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
+      <c r="C15" s="3">
+        <v>79067320032</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>7103</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>24377</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="4">
-        <v>79067320032</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
+      <c r="C16" s="3">
+        <v>79067320032</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>7103</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>20913</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="4">
-        <v>79067320032</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
+      <c r="C17" s="3">
+        <v>79067320032</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>7103</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>1361</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="4">
-        <v>79067320032</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
+      <c r="C18" s="3">
+        <v>79067320032</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>7103</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>20913</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="4">
-        <v>79067320032</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
+      <c r="C19" s="3">
+        <v>79067320032</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>7103</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>27513</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>5116128004</v>
       </c>
-      <c r="C20" s="4">
-        <v>79067320032</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="C20" s="3">
+        <v>79067320032</v>
+      </c>
+      <c r="D20" s="3">
         <v>8004</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>5116134463</v>
       </c>
-      <c r="C21" s="4">
-        <v>79067320032</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="C21" s="3">
+        <v>79067320032</v>
+      </c>
+      <c r="D21" s="3">
         <v>4463</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>20000</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>5116134664</v>
       </c>
-      <c r="C22" s="4">
-        <v>79067320032</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="C22" s="3">
+        <v>79067320032</v>
+      </c>
+      <c r="D22" s="3">
         <v>4664</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>601000</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="3" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5113202401</v>
+      </c>
+      <c r="C23" s="3">
+        <v>79067320032</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2401</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3">
+        <v>4420</v>
+      </c>
+      <c r="H23" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Загрузка билетов в РС Билеты для тестирования/Загрузка билетов для автотестов.xlsx
+++ b/Загрузка билетов в РС Билеты для тестирования/Загрузка билетов для автотестов.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>Игра</t>
   </si>
@@ -62,9 +62,6 @@
     <t>нал</t>
   </si>
   <si>
-    <t>Тиражные офлайн бинго</t>
-  </si>
-  <si>
     <t>27 001</t>
   </si>
   <si>
@@ -74,86 +71,50 @@
     <t>Моментальные современные</t>
   </si>
   <si>
-    <t>4304</t>
-  </si>
-  <si>
-    <t>4592</t>
-  </si>
-  <si>
-    <t>2250</t>
-  </si>
-  <si>
-    <t>3924</t>
-  </si>
-  <si>
-    <t>8817</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>5190598330100159</t>
-  </si>
-  <si>
-    <t>X24KC</t>
-  </si>
-  <si>
-    <t>5190598330100167</t>
-  </si>
-  <si>
-    <t>XG824</t>
-  </si>
-  <si>
-    <t>5190598330100399</t>
-  </si>
-  <si>
-    <t>X8HGY</t>
-  </si>
-  <si>
-    <t>5190598330100407</t>
-  </si>
-  <si>
-    <t>X38C2</t>
-  </si>
-  <si>
-    <t>5190598330100589</t>
-  </si>
-  <si>
-    <t>XGVZH</t>
-  </si>
-  <si>
-    <t>5190598330100605</t>
-  </si>
-  <si>
-    <t>WYDL3</t>
-  </si>
-  <si>
-    <t>145100010039</t>
-  </si>
-  <si>
-    <t>145200010039</t>
-  </si>
-  <si>
-    <t>144900010049</t>
-  </si>
-  <si>
-    <t>145000010099</t>
-  </si>
-  <si>
-    <t>144900010099</t>
-  </si>
-  <si>
-    <t>144400010099</t>
-  </si>
-  <si>
     <t>Частичные выплаты</t>
+  </si>
+  <si>
+    <t>5190598330100191</t>
+  </si>
+  <si>
+    <t>X9J0P</t>
+  </si>
+  <si>
+    <t>X848B</t>
+  </si>
+  <si>
+    <t>5190598330100217</t>
+  </si>
+  <si>
+    <t>X2MF0</t>
+  </si>
+  <si>
+    <t>5190598330100415</t>
+  </si>
+  <si>
+    <t>5190598330100431</t>
+  </si>
+  <si>
+    <t>WVRQR</t>
+  </si>
+  <si>
+    <t>WXK2K</t>
+  </si>
+  <si>
+    <t>5190598330100613</t>
+  </si>
+  <si>
+    <t>5190598330100621</t>
+  </si>
+  <si>
+    <t>XE2DG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +127,13 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -210,13 +178,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,7 +480,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="L18" sqref="L17:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,14 +529,14 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>5113254304</v>
+      <c r="B2" s="6">
+        <v>5113529995</v>
       </c>
       <c r="C2" s="3">
         <v>79067320032</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
+      <c r="D2" s="3">
+        <v>9995</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
@@ -569,7 +546,7 @@
         <v>4420</v>
       </c>
       <c r="H2" s="3">
-        <v>75</v>
+        <v>1470</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>10</v>
@@ -579,14 +556,14 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>5113212250</v>
+      <c r="B3" s="6">
+        <v>5114460181</v>
       </c>
       <c r="C3" s="3">
         <v>79067320032</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
+      <c r="D3" s="3">
+        <v>181</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
@@ -596,7 +573,7 @@
         <v>5150</v>
       </c>
       <c r="H3" s="3">
-        <v>16500</v>
+        <v>30000</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>10</v>
@@ -606,14 +583,14 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>5113218817</v>
+      <c r="B4" s="6">
+        <v>5113723192</v>
       </c>
       <c r="C4" s="3">
         <v>79067320032</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
+      <c r="D4" s="3">
+        <v>3192</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
@@ -623,7 +600,7 @@
         <v>5101</v>
       </c>
       <c r="H4" s="3">
-        <v>600000</v>
+        <v>647425</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>10</v>
@@ -633,24 +610,24 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>5113254592</v>
+      <c r="B5" s="6">
+        <v>5113285450</v>
       </c>
       <c r="C5" s="3">
         <v>79067320032</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
+      <c r="D5" s="3">
+        <v>5450</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="3">
-        <v>4420</v>
+        <v>5150</v>
       </c>
       <c r="H5" s="3">
-        <v>75</v>
+        <v>1487</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>11</v>
@@ -660,14 +637,14 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>5113213924</v>
+      <c r="B6" s="6">
+        <v>5113486885</v>
       </c>
       <c r="C6" s="3">
         <v>79067320032</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
+      <c r="D6" s="3">
+        <v>6885</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
@@ -677,7 +654,7 @@
         <v>5101</v>
       </c>
       <c r="H6" s="3">
-        <v>16500</v>
+        <v>30500</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>11</v>
@@ -687,14 +664,14 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>5113219000</v>
+      <c r="B7" s="6">
+        <v>5113723756</v>
       </c>
       <c r="C7" s="3">
         <v>79067320032</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
+      <c r="D7" s="3">
+        <v>3756</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
@@ -704,7 +681,7 @@
         <v>5101</v>
       </c>
       <c r="H7" s="3">
-        <v>600000</v>
+        <v>647425</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>11</v>
@@ -714,18 +691,18 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="3">
         <v>79067320032</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="3">
         <v>30519</v>
@@ -741,18 +718,18 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
+      <c r="B9" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="3">
         <v>79067320032</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="3">
         <v>30519</v>
@@ -768,18 +745,18 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>30</v>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="3">
         <v>79067320032</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>31</v>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="3">
         <v>30519</v>
@@ -795,18 +772,18 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="3">
         <v>79067320032</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="3">
         <v>30519</v>
@@ -822,18 +799,18 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="3">
         <v>79067320032</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>29</v>
+      <c r="D12" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="3">
         <v>30519</v>
@@ -849,18 +826,18 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>32</v>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C13" s="3">
         <v>79067320032</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>33</v>
+      <c r="D13" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="3">
         <v>30519</v>
@@ -876,259 +853,141 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
+      <c r="B14" s="3">
+        <v>5116128013</v>
       </c>
       <c r="C14" s="3">
         <v>79067320032</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>8013</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="3">
-        <v>7103</v>
-      </c>
       <c r="H14" s="3">
-        <v>1022</v>
+        <v>1000</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>36</v>
+      <c r="B15" s="3">
+        <v>5116134466</v>
       </c>
       <c r="C15" s="3">
         <v>79067320032</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>4466</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="3">
-        <v>7103</v>
-      </c>
       <c r="H15" s="3">
-        <v>24377</v>
+        <v>20000</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>38</v>
+      <c r="B16" s="3">
+        <v>5116134667</v>
       </c>
       <c r="C16" s="3">
         <v>79067320032</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>4667</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="3">
-        <v>7103</v>
-      </c>
       <c r="H16" s="3">
-        <v>20913</v>
+        <v>601000</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>35</v>
+      <c r="B17" s="6">
+        <v>5113723885</v>
       </c>
       <c r="C17" s="3">
         <v>79067320032</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>3885</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G17" s="3">
-        <v>7103</v>
+        <v>4420</v>
       </c>
       <c r="H17" s="3">
-        <v>1361</v>
+        <v>647425</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="3">
-        <v>79067320032</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="3">
-        <v>7103</v>
-      </c>
-      <c r="H18" s="3">
-        <v>20913</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="3">
-        <v>79067320032</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="3">
-        <v>7103</v>
-      </c>
-      <c r="H19" s="3">
-        <v>27513</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3">
-        <v>5116128004</v>
-      </c>
-      <c r="C20" s="3">
-        <v>79067320032</v>
-      </c>
-      <c r="D20" s="3">
-        <v>8004</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
-        <v>5116134463</v>
-      </c>
-      <c r="C21" s="3">
-        <v>79067320032</v>
-      </c>
-      <c r="D21" s="3">
-        <v>4463</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="3">
-        <v>20000</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3">
-        <v>5116134664</v>
-      </c>
-      <c r="C22" s="3">
-        <v>79067320032</v>
-      </c>
-      <c r="D22" s="3">
-        <v>4664</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="3">
-        <v>601000</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3">
-        <v>5113202401</v>
-      </c>
-      <c r="C23" s="3">
-        <v>79067320032</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2401</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="3">
-        <v>4420</v>
-      </c>
-      <c r="H23" s="3">
-        <v>15000</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>

--- a/Загрузка билетов в РС Билеты для тестирования/Загрузка билетов для автотестов.xlsx
+++ b/Загрузка билетов в РС Билеты для тестирования/Загрузка билетов для автотестов.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jenkins\workspace\ARM_PAYMENT\GIT_ARM_PAYMENT\Загрузка билетов в РС Билеты для тестирования\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jenkins\Workspace\ARM_Payment\GIT_ARM_PAYMENT\Загрузка билетов в РС Билеты для тестирования\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>Игра</t>
   </si>
@@ -68,53 +68,14 @@
     <t>ВПС нал</t>
   </si>
   <si>
-    <t>Моментальные современные</t>
-  </si>
-  <si>
     <t>Частичные выплаты</t>
-  </si>
-  <si>
-    <t>5190598330100191</t>
-  </si>
-  <si>
-    <t>X9J0P</t>
-  </si>
-  <si>
-    <t>X848B</t>
-  </si>
-  <si>
-    <t>5190598330100217</t>
-  </si>
-  <si>
-    <t>X2MF0</t>
-  </si>
-  <si>
-    <t>5190598330100415</t>
-  </si>
-  <si>
-    <t>5190598330100431</t>
-  </si>
-  <si>
-    <t>WVRQR</t>
-  </si>
-  <si>
-    <t>WXK2K</t>
-  </si>
-  <si>
-    <t>5190598330100613</t>
-  </si>
-  <si>
-    <t>5190598330100621</t>
-  </si>
-  <si>
-    <t>XE2DG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,13 +88,6 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -178,22 +132,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,26 +422,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L17:L18"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -525,18 +470,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>5113529995</v>
+      <c r="B2">
+        <v>5113713250</v>
       </c>
       <c r="C2" s="3">
         <v>79067320032</v>
       </c>
       <c r="D2" s="3">
-        <v>9995</v>
+        <v>3250</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
@@ -546,24 +491,24 @@
         <v>4420</v>
       </c>
       <c r="H2" s="3">
-        <v>1470</v>
+        <v>350</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>5114460181</v>
+      <c r="B3">
+        <v>5113635676</v>
       </c>
       <c r="C3" s="3">
         <v>79067320032</v>
       </c>
       <c r="D3" s="3">
-        <v>181</v>
+        <v>5676</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
@@ -573,24 +518,24 @@
         <v>5150</v>
       </c>
       <c r="H3" s="3">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>5113723192</v>
+      <c r="B4">
+        <v>5113723885</v>
       </c>
       <c r="C4" s="3">
         <v>79067320032</v>
       </c>
       <c r="D4" s="3">
-        <v>3192</v>
+        <v>3885</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
@@ -606,45 +551,45 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>5113285450</v>
+      <c r="B5">
+        <v>5113713256</v>
       </c>
       <c r="C5" s="3">
         <v>79067320032</v>
       </c>
       <c r="D5" s="3">
-        <v>5450</v>
+        <v>3256</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="3">
-        <v>5150</v>
+        <v>4420</v>
       </c>
       <c r="H5" s="3">
-        <v>1487</v>
+        <v>350</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
-        <v>5113486885</v>
+      <c r="B6">
+        <v>5113636096</v>
       </c>
       <c r="C6" s="3">
         <v>79067320032</v>
       </c>
       <c r="D6" s="3">
-        <v>6885</v>
+        <v>6096</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
@@ -654,24 +599,24 @@
         <v>5101</v>
       </c>
       <c r="H6" s="3">
-        <v>30500</v>
+        <v>15000</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
-        <v>5113723756</v>
+      <c r="B7">
+        <v>5113725838</v>
       </c>
       <c r="C7" s="3">
         <v>79067320032</v>
       </c>
       <c r="D7" s="3">
-        <v>3756</v>
+        <v>5838</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
@@ -687,278 +632,169 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3024757963</v>
       </c>
       <c r="C8" s="3">
         <v>79067320032</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
+      <c r="D8" s="3">
+        <v>7963</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>14</v>
       </c>
-      <c r="G8" s="3">
-        <v>30519</v>
-      </c>
-      <c r="H8" s="3">
-        <v>9000</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
+      <c r="B9" s="3">
+        <v>5116134469</v>
       </c>
       <c r="C9" s="3">
         <v>79067320032</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
+      <c r="D9" s="3">
+        <v>4469</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="3">
-        <v>30519</v>
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H9" s="3">
-        <v>500000</v>
+        <v>20000</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5116134700</v>
       </c>
       <c r="C10" s="3">
         <v>79067320032</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
+      <c r="D10" s="3">
+        <v>4700</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="3">
-        <v>30519</v>
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H10" s="3">
-        <v>1000000</v>
+        <v>601000</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>5114459344</v>
       </c>
       <c r="C11" s="3">
         <v>79067320032</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>18</v>
+      <c r="D11" s="3">
+        <v>9344</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4420</v>
+      </c>
+      <c r="H11" s="3">
+        <v>637500</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="3">
-        <v>30519</v>
-      </c>
-      <c r="H11" s="3">
-        <v>9000</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3">
-        <v>79067320032</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="3">
-        <v>30519</v>
-      </c>
-      <c r="H12" s="3">
-        <v>500000</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3">
-        <v>79067320032</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="3">
-        <v>30519</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>5116128013</v>
-      </c>
-      <c r="C14" s="3">
-        <v>79067320032</v>
-      </c>
-      <c r="D14" s="3">
-        <v>8013</v>
-      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>5116134466</v>
-      </c>
-      <c r="C15" s="3">
-        <v>79067320032</v>
-      </c>
-      <c r="D15" s="3">
-        <v>4466</v>
-      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="3">
-        <v>20000</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>5116134667</v>
-      </c>
-      <c r="C16" s="3">
-        <v>79067320032</v>
-      </c>
-      <c r="D16" s="3">
-        <v>4667</v>
-      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="3">
-        <v>601000</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6">
-        <v>5113723885</v>
-      </c>
-      <c r="C17" s="3">
-        <v>79067320032</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3885</v>
-      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="3">
-        <v>4420</v>
-      </c>
-      <c r="H17" s="3">
-        <v>647425</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -967,8 +803,7 @@
       <c r="G18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -977,19 +812,43 @@
       <c r="G19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -998,7 +857,7 @@
       <c r="G24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1007,7 +866,7 @@
       <c r="G25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1016,7 +875,7 @@
       <c r="G26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1025,7 +884,7 @@
       <c r="G27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1034,7 +893,7 @@
       <c r="G28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1043,7 +902,7 @@
       <c r="G29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1052,7 +911,7 @@
       <c r="G30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1061,7 +920,7 @@
       <c r="G31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1070,119 +929,11 @@
       <c r="G32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H45"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H46"/>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Загрузка билетов в РС Билеты для тестирования/Загрузка билетов для автотестов.xlsx
+++ b/Загрузка билетов в РС Билеты для тестирования/Загрузка билетов для автотестов.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>Игра</t>
   </si>
@@ -72,13 +72,52 @@
   </si>
   <si>
     <t>Тираж</t>
+  </si>
+  <si>
+    <t>5190598330100282</t>
+  </si>
+  <si>
+    <t>X4BQH</t>
+  </si>
+  <si>
+    <t>5190598330100290</t>
+  </si>
+  <si>
+    <t>X5HSA</t>
+  </si>
+  <si>
+    <t>5190598330100498</t>
+  </si>
+  <si>
+    <t>XBATC</t>
+  </si>
+  <si>
+    <t>5190598330100506</t>
+  </si>
+  <si>
+    <t>WX2MQ</t>
+  </si>
+  <si>
+    <t>5190598330100639</t>
+  </si>
+  <si>
+    <t>WT456</t>
+  </si>
+  <si>
+    <t>5190598330100662</t>
+  </si>
+  <si>
+    <t>WX4PZ</t>
+  </si>
+  <si>
+    <t>Моментальные офлайн</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +125,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,13 +154,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -398,23 +453,23 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -446,51 +501,51 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" s="6">
+        <v>5117055778</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="str">
+        <v>79067320032</v>
+      </c>
+      <c r="D2" s="1" t="str">
         <f>RIGHT(B2,(10-6))</f>
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+        <v>5778</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>5117191864</v>
+      <c r="B3" s="6">
+        <v>5117801296</v>
       </c>
       <c r="C3">
         <v>79067320032</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="1" t="str">
         <f t="shared" ref="D3:D12" si="0">RIGHT(B3,(10-6))</f>
-        <v>1864</v>
-      </c>
-      <c r="F3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G3">
@@ -506,21 +561,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>5117212852</v>
+      <c r="B4" s="6">
+        <v>5116895077</v>
       </c>
       <c r="C4">
         <v>79067320032</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2852</v>
-      </c>
-      <c r="F4" t="s">
+        <v>5077</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G4">
@@ -536,21 +591,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>5117054638</v>
+      <c r="B5" s="6">
+        <v>5117056261</v>
       </c>
       <c r="C5">
         <v>79067320032</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>4638</v>
-      </c>
-      <c r="F5" t="s">
+        <v>6261</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G5">
@@ -566,21 +621,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>5117776438</v>
+      <c r="B6" s="6">
+        <v>5118366922</v>
       </c>
       <c r="C6">
         <v>79067320032</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>6438</v>
-      </c>
-      <c r="F6" t="s">
+        <v>6922</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G6">
@@ -596,21 +651,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>5117212834</v>
+      <c r="B7" s="6">
+        <v>5116901329</v>
       </c>
       <c r="C7">
         <v>79067320032</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2834</v>
-      </c>
-      <c r="F7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G7">
@@ -626,21 +681,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>5116891624</v>
+      <c r="B8" s="6">
+        <v>5117334811</v>
       </c>
       <c r="C8">
         <v>79067320032</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1624</v>
-      </c>
-      <c r="F8" t="s">
+        <v>4811</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G8">
@@ -656,21 +711,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>5116128031</v>
+      <c r="B9" s="1">
+        <v>5121096088</v>
       </c>
       <c r="C9">
         <v>79067320032</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>8031</v>
-      </c>
-      <c r="F9" t="s">
+        <v>6088</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G9">
@@ -686,21 +741,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>5116134487</v>
+      <c r="B10" s="1">
+        <v>5121097756</v>
       </c>
       <c r="C10">
         <v>79067320032</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>4487</v>
-      </c>
-      <c r="F10" t="s">
+        <v>7756</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G10">
@@ -716,21 +771,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>5116134688</v>
+      <c r="B11" s="1">
+        <v>5121101632</v>
       </c>
       <c r="C11">
         <v>79067320032</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>4688</v>
-      </c>
-      <c r="F11" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G11">
@@ -746,21 +801,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>5117795866</v>
+      <c r="B12" s="6">
+        <v>5118022444</v>
       </c>
       <c r="C12">
         <v>79067320032</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>5866</v>
-      </c>
-      <c r="F12" t="s">
+        <v>2444</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G12">
@@ -776,61 +831,187 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>79067320032</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>79067320032</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>79067320032</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>79067320032</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>79067320032</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>79067320032</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -839,7 +1020,7 @@
       <c r="G19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -848,7 +1029,7 @@
       <c r="G20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -857,7 +1038,7 @@
       <c r="G21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -866,7 +1047,7 @@
       <c r="G22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -875,7 +1056,7 @@
       <c r="G23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -884,7 +1065,7 @@
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -893,7 +1074,7 @@
       <c r="G25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -902,7 +1083,7 @@
       <c r="G26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -911,7 +1092,7 @@
       <c r="G27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -920,7 +1101,7 @@
       <c r="G28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -929,7 +1110,7 @@
       <c r="G29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -938,7 +1119,7 @@
       <c r="G30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -947,7 +1128,7 @@
       <c r="G31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -956,7 +1137,7 @@
       <c r="G32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -965,10 +1146,10 @@
       <c r="G33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H34"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H35"/>
     </row>
   </sheetData>
